--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,61 +40,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
@@ -103,9 +103,6 @@
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -136,97 +145,115 @@
     <t>join</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>helping</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>corona</t>
@@ -587,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -706,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -724,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,16 +804,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9148936170212766</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -906,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.9014084507042254</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.900523560209424</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>344</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>0.9148936170212766</v>
+      </c>
+      <c r="L10">
         <v>43</v>
       </c>
-      <c r="K10">
-        <v>0.890625</v>
-      </c>
-      <c r="L10">
-        <v>114</v>
-      </c>
       <c r="M10">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.746031746031746</v>
+        <v>0.775</v>
       </c>
       <c r="C11">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8773584905660378</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7297297297297297</v>
+        <v>0.7306201550387597</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.8658536585365854</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7151162790697675</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C14">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.8625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.88125</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6610169491525424</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6308724832214765</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C17">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L17">
         <v>50</v>
       </c>
-      <c r="K17">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L17">
-        <v>29</v>
-      </c>
       <c r="M17">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5535714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,13 +1533,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5454545454545454</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1524,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7708333333333334</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1548,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4909090909090909</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1574,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7573221757322176</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1598,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1606,13 +1633,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1624,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1648,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1656,13 +1683,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1674,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7448979591836735</v>
+        <v>0.76</v>
       </c>
       <c r="L23">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1706,13 +1733,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3888888888888889</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1724,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.7230769230769231</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1748,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1756,37 +1783,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3650793650793651</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D25">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.7127659574468085</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1798,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1806,13 +1833,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3136729222520107</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C26">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1824,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.7058823529411765</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1848,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1856,13 +1883,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.16</v>
+        <v>0.09556313993174062</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1874,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6741573033707865</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1895,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1906,37 +1933,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.02133850630455868</v>
+        <v>0.03882657463330457</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3027</v>
+        <v>1114</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6575342465753424</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1948,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1956,37 +1983,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01220084467386204</v>
+        <v>0.03273905996758509</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="E29">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="F29">
-        <v>0.6799999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2105</v>
+        <v>2984</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6571428571428571</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1998,21 +2025,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.0222117202268431</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>0.36</v>
+      </c>
+      <c r="F30">
+        <v>0.64</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2069</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2024,47 +2075,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5777777777777777</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L31">
+        <v>63</v>
+      </c>
+      <c r="M31">
+        <v>63</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>26</v>
-      </c>
-      <c r="M31">
-        <v>26</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.543859649122807</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2076,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2102,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.4426229508196721</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2128,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.421875</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2154,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.25</v>
+        <v>0.59375</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2180,21 +2231,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.07163323782234957</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2206,33 +2257,267 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>324</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.01757689893283114</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="N38">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3130</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41">
+        <v>0.3145161290322581</v>
+      </c>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>0.2710280373831775</v>
+      </c>
+      <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>31</v>
+      </c>
+      <c r="N42">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>30</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.09120521172638436</v>
+      </c>
+      <c r="L44">
+        <v>28</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45">
+        <v>0.06490384615384616</v>
+      </c>
+      <c r="L45">
+        <v>27</v>
+      </c>
+      <c r="M45">
+        <v>27</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <v>0.0229631959735766</v>
+      </c>
+      <c r="L46">
+        <v>73</v>
+      </c>
+      <c r="M46">
+        <v>95</v>
+      </c>
+      <c r="N46">
+        <v>0.77</v>
+      </c>
+      <c r="O46">
+        <v>0.23</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>0.01288167938931298</v>
+      </c>
+      <c r="L47">
+        <v>27</v>
+      </c>
+      <c r="M47">
+        <v>74</v>
+      </c>
+      <c r="N47">
+        <v>0.36</v>
+      </c>
+      <c r="O47">
+        <v>0.64</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2069</v>
       </c>
     </row>
   </sheetData>
